--- a/biology/Zoologie/Ascalaphidae/Ascalaphidae.xlsx
+++ b/biology/Zoologie/Ascalaphidae/Ascalaphidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ascalaphidae (ascalaphidés en français) forment une famille d'insectes névroptères, les ascalaphes en font partie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Insectes au corps trapu et avec de longues antennes à l'extrémité en massue.
 Les mâles ont des valves très développées.
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Diurnes, au vol rapide et ondoyant à 2 ou 3 mètres de hauteur, capturent les mouches et autres petits insectes en vol.
 Se chauffent au soleil sur les plantes, ailes étalées. Vivent dans des biotopes chauds et secs.
@@ -576,12 +592,14 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Sous-famille des Albardiinae (van der Weele, 1908);
 Sous-famille des Ascalaphinae (Lefèbvre, 1842);
-Sous-famille des Haplogleniinae (Newman, 1853)[1].</t>
+Sous-famille des Haplogleniinae (Newman, 1853).</t>
         </is>
       </c>
     </row>
@@ -609,7 +627,9 @@
           <t>Liste d'espèces européennes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On rencontre 4 genres d'ascalaphidés en Europe, (surtout dans le sud), répartis en 14 espèces : 
 Genre Libelloides :
